--- a/dev/Result/Tables.xlsx
+++ b/dev/Result/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyama\Desktop\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B408931F-85B9-419C-8D59-02798562AB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ABA744-0A98-406D-806A-F8E7F594380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{7E48FC0B-48C0-42B9-9CC2-3F88B253204A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E48FC0B-48C0-42B9-9CC2-3F88B253204A}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="41">
   <si>
     <t>p.value</t>
   </si>
@@ -112,44 +112,46 @@
     <t>Nicotinic acid metaboilsm</t>
   </si>
   <si>
-    <t>Table2. MSEA (simple imputation)</t>
+    <t>lower p-value</t>
+  </si>
+  <si>
+    <t>upper p-value</t>
+  </si>
+  <si>
+    <t>p-value(mean)</t>
+  </si>
+  <si>
+    <t>p-value(min)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Table2. MSEA(detected)</t>
+    <t>p-value(max)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Table1. MSEA(MetaboAnalyst like)</t>
+    <t>p-value(min+max/2)</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>lower p-value</t>
-  </si>
-  <si>
-    <t>upper p-value</t>
-  </si>
-  <si>
-    <t>Table4 all pattern</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Lower p-value CI</t>
-  </si>
-  <si>
-    <t>Upper p-value CI</t>
-  </si>
-  <si>
-    <t>Table7 hierarchical bayes</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Table5 Binomial distribution</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Table6  Beta distribution</t>
-    <phoneticPr fontId="18"/>
+    <t>Table 1. MetaboAnalyst スタイルの従来の ORA による経路有意性評価結果</t>
+  </si>
+  <si>
+    <t>Table 2. 検出代謝物のみを使用した MSEA による経路有意性評価結果</t>
+  </si>
+  <si>
+    <t>Table 3. シンプルな補完法を用いた MSEA による経路有意性評価結果</t>
+  </si>
+  <si>
+    <t>Table 4. 未検出代謝物の全組み合わせを考慮した MSEA による p 値範囲の推定</t>
+  </si>
+  <si>
+    <t>Table 5. 二項分布モデルを用いた未検出代謝物の MSEA による p 値範囲の推定</t>
+  </si>
+  <si>
+    <t>Table 6. ベータ分布モデルを用いた未検出代謝物の MSEA による p 値範囲の推定</t>
+  </si>
+  <si>
+    <t>Table 7. 階層ベイズモデルを用いた未検出代謝物の MSEA による p 値範囲の推定</t>
   </si>
 </sst>
 </file>
@@ -1124,21 +1126,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19FBAD1-7D1A-4046-945D-88FEB7D33246}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1436,24 +1441,28 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56010394-1EFE-4AD3-BB24-34A34E18E5FE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1751,33 +1760,363 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A14AE11-B0B8-47DE-83E2-F74C0ADF62B5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.3801539412453096E-6</v>
+      </c>
+      <c r="C2">
+        <v>1.08942001236189E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3.1480265655962E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.116926701007859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1.03793884209485E-4</v>
+      </c>
+      <c r="C4">
+        <v>8.9954699648220695E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.47609820863540803</v>
+      </c>
+      <c r="C5">
+        <v>0.82523689496803998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.24401538688138599</v>
+      </c>
+      <c r="C6">
+        <v>0.61249301650838195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.93295575778946305</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.80974478750046197</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.12884359985951199</v>
+      </c>
+      <c r="C9">
+        <v>0.37221484403859101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9.2525664572632796E-3</v>
+      </c>
+      <c r="C10">
+        <v>4.0094454648140897E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.89966467488663304</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.28268908454232999</v>
+      </c>
+      <c r="C12">
+        <v>0.61249301650838195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>3.0149779720272702E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.5677885454541799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>6.2861479577718399E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.20429980862758501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.5908878941317699E-4</v>
+      </c>
+      <c r="C16">
+        <v>1.03407713118565E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.99976705103814101</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.79151026172567E-8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.2579266804867303E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.94974328220948101</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.27442625883014798</v>
+      </c>
+      <c r="C20">
+        <v>0.61249301650838195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.47609820863540803</v>
+      </c>
+      <c r="C21">
+        <v>0.82523689496803998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.99999992218712996</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.98704307460817597</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.99061426533201902</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.33149728870724299</v>
+      </c>
+      <c r="C27">
+        <v>0.66299457741448597</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314D5D67-4F3F-4068-B378-4771CA044F72}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1785,635 +2124,403 @@
         <v>8.3801539412453096E-6</v>
       </c>
       <c r="C2">
-        <v>1.08942001236189E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.03454489264511E-4</v>
+      </c>
+      <c r="D2">
+        <v>1.98528824587776E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.1480265655962E-2</v>
+        <v>5.5739857050281401E-3</v>
       </c>
       <c r="C3">
-        <v>0.116926701007859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>5.1457745220114801E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.117318984299354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.03793884209485E-4</v>
+      <c r="B4" s="1">
+        <v>7.2686149084657703E-6</v>
       </c>
       <c r="C4">
-        <v>8.9954699648220695E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.3504264037719002E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.196738441912126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.47609820863540803</v>
+        <v>5.6830217285623796E-3</v>
       </c>
       <c r="C5">
-        <v>0.82523689496803998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.35487780854614898</v>
+      </c>
+      <c r="D5">
+        <v>0.90803573114067804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.24401538688138599</v>
+        <v>9.5187672613727903E-2</v>
       </c>
       <c r="C6">
-        <v>0.61249301650838195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.27176708937684002</v>
+      </c>
+      <c r="D6">
+        <v>0.47609820863540803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.93295575778946305</v>
+      <c r="B7" s="1">
+        <v>1.12653994032465E-13</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.357793092497248</v>
+      </c>
+      <c r="D7">
+        <v>0.99999933873059599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0.80974478750046197</v>
+      <c r="B8" s="1">
+        <v>8.0599727195094901E-7</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.37113773192826699</v>
+      </c>
+      <c r="D8">
+        <v>0.99955517998547705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0.12884359985951199</v>
+      <c r="B9" s="1">
+        <v>1.77318186225026E-8</v>
       </c>
       <c r="C9">
-        <v>0.37221484403859101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.27435603964230998</v>
+      </c>
+      <c r="D9">
+        <v>0.98430393130909599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>9.2525664572632796E-3</v>
+      <c r="B10" s="1">
+        <v>2.91309793373656E-9</v>
       </c>
       <c r="C10">
-        <v>4.0094454648140897E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.22440650235343901</v>
+      </c>
+      <c r="D10">
+        <v>0.94974328220948101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0.89966467488663304</v>
+      <c r="B11" s="1">
+        <v>3.9689751051912302E-7</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.38188119427981099</v>
+      </c>
+      <c r="D11">
+        <v>0.99986377382059599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.28268908454232999</v>
+      <c r="B12" s="1">
+        <v>1.2070814647145099E-9</v>
       </c>
       <c r="C12">
-        <v>0.61249301650838195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.32737206282811199</v>
+      </c>
+      <c r="D12">
+        <v>0.99943272518948301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" s="1">
+        <v>6.2871359710974597E-9</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.43292496168754402</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>3.0149779720272702E-3</v>
+      <c r="B14" s="1">
+        <v>3.9689751051912302E-7</v>
       </c>
       <c r="C14">
-        <v>1.5677885454541799E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.171724403616762</v>
+      </c>
+      <c r="D14">
+        <v>0.78558614140094196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>6.2861479577718399E-2</v>
+      <c r="B15" s="1">
+        <v>2.7960276717997499E-7</v>
       </c>
       <c r="C15">
-        <v>0.20429980862758501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.28927803951101799</v>
+      </c>
+      <c r="D15">
+        <v>0.98209945382018904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>1.5908878941317699E-4</v>
+      <c r="B16" s="1">
+        <v>1.6809960687882501E-7</v>
       </c>
       <c r="C16">
-        <v>1.03407713118565E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.16425513123933999</v>
+      </c>
+      <c r="D16">
+        <v>0.76831275766193297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>0.99976705103814101</v>
+      <c r="B17" s="1">
+        <v>1.2587544994807899E-27</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.34599614681618301</v>
+      </c>
+      <c r="D17">
+        <v>0.99999999999889599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>2.79151026172567E-8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7.2579266804867303E-7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>3.4866534137016103E-27</v>
+      </c>
+      <c r="C18">
+        <v>0.287571692022906</v>
+      </c>
+      <c r="D18">
+        <v>0.99999917497753199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.94974328220948101</v>
+        <v>2.4344561211174899E-4</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.43906382306949399</v>
+      </c>
+      <c r="D19">
+        <v>0.99898854259730496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.27442625883014798</v>
+        <v>3.8194760219660302E-4</v>
       </c>
       <c r="C20">
-        <v>0.61249301650838195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.303509579001631</v>
+      </c>
+      <c r="D20">
+        <v>0.92050367914801301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.47609820863540803</v>
+        <v>9.5187672613727903E-2</v>
       </c>
       <c r="C21">
-        <v>0.82523689496803998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.38572945144010901</v>
+      </c>
+      <c r="D21">
+        <v>0.72761653762991296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>0.99999992218712996</v>
+      <c r="B22" s="1">
+        <v>3.6626556138995401E-17</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.41244653324180203</v>
+      </c>
+      <c r="D22">
+        <v>0.99999999999960099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0.98704307460817597</v>
+      <c r="B23" s="1">
+        <v>2.1819722237266399E-11</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.38930507922760699</v>
+      </c>
+      <c r="D23">
+        <v>0.99999961069417298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.99061426533201902</v>
+        <v>0.32777738541748902</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.76994767595695801</v>
+      </c>
+      <c r="D24">
+        <v>0.99902468199438599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" s="1">
+        <v>7.7187266452260008E-9</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.36809865397685498</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.85075861521039198</v>
       </c>
       <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.92537930760519604</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>0.33149728870724299</v>
+      <c r="B27" s="1">
+        <v>1.3183653039880699E-8</v>
       </c>
       <c r="C27">
-        <v>0.66299457741448597</v>
+        <v>0.322209870180939</v>
+      </c>
+      <c r="D27">
+        <v>0.99799536090146601</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314D5D67-4F3F-4068-B378-4771CA044F72}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8.3801539412453096E-6</v>
-      </c>
-      <c r="C2">
-        <v>1.98528824587776E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5.5739857050281401E-3</v>
-      </c>
-      <c r="C3">
-        <v>0.117318984299354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.2686149084657703E-6</v>
-      </c>
-      <c r="C4">
-        <v>0.196738441912126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5.6830217285623796E-3</v>
-      </c>
-      <c r="C5">
-        <v>0.90803573114067804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>9.5187672613727903E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.47609820863540803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.12653994032465E-13</v>
-      </c>
-      <c r="C7">
-        <v>0.99999933873059599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8.0599727195094901E-7</v>
-      </c>
-      <c r="C8">
-        <v>0.99955517998547705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.77318186225026E-8</v>
-      </c>
-      <c r="C9">
-        <v>0.98430393130909599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.91309793373656E-9</v>
-      </c>
-      <c r="C10">
-        <v>0.94974328220948101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3.9689751051912302E-7</v>
-      </c>
-      <c r="C11">
-        <v>0.99986377382059599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.2070814647145099E-9</v>
-      </c>
-      <c r="C12">
-        <v>0.99943272518948301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6.2871359710974597E-9</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.9689751051912302E-7</v>
-      </c>
-      <c r="C14">
-        <v>0.78558614140094196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.7960276717997499E-7</v>
-      </c>
-      <c r="C15">
-        <v>0.98209945382018904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.6809960687882501E-7</v>
-      </c>
-      <c r="C16">
-        <v>0.76831275766193297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.2587544994807899E-27</v>
-      </c>
-      <c r="C17">
-        <v>0.99999999999889599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3.4866534137016103E-27</v>
-      </c>
-      <c r="C18">
-        <v>0.99999917497753199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>2.4344561211174899E-4</v>
-      </c>
-      <c r="C19">
-        <v>0.99898854259730496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>3.8194760219660302E-4</v>
-      </c>
-      <c r="C20">
-        <v>0.92050367914801301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>9.5187672613727903E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.72761653762991296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3.6626556138995401E-17</v>
-      </c>
-      <c r="C22">
-        <v>0.99999999999960099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.1819722237266399E-11</v>
-      </c>
-      <c r="C23">
-        <v>0.99999961069417298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0.32777738541748902</v>
-      </c>
-      <c r="C24">
-        <v>0.99902468199438599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>7.7187266452260008E-9</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>0.85075861521039198</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.3183653039880699E-8</v>
-      </c>
-      <c r="C27">
-        <v>0.99799536090146601</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACEBFDD-13F9-456A-8B30-C597FABA030C}">
-  <dimension ref="A1:C27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2421,10 +2528,13 @@
         <v>2.5544481687155301E-6</v>
       </c>
       <c r="C2" s="1">
-        <v>6.6637211666543294E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2.5544481687155301E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5544481687155301E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2432,10 +2542,13 @@
         <v>2.1259448952321599E-3</v>
       </c>
       <c r="C3">
+        <v>2.10448727286171E-2</v>
+      </c>
+      <c r="D3">
         <v>5.82715427480767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2443,10 +2556,13 @@
         <v>7.2686149084657703E-6</v>
       </c>
       <c r="C4">
+        <v>5.1510523252601003E-4</v>
+      </c>
+      <c r="D4">
         <v>5.4350034352094899E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2454,43 +2570,55 @@
         <v>2.7508101193367399E-2</v>
       </c>
       <c r="C5">
-        <v>0.72761653762991296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.41602348581418502</v>
+      </c>
+      <c r="D5">
+        <v>0.90803573114067804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.24401538688138599</v>
+        <v>9.5187672613727903E-2</v>
       </c>
       <c r="C6">
+        <v>0.28532539238273902</v>
+      </c>
+      <c r="D6">
         <v>0.47609820863540803</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.2774112278627001E-2</v>
+        <v>0.55880452033535</v>
       </c>
       <c r="C7">
-        <v>0.99998866380695794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.935407524374397</v>
+      </c>
+      <c r="D7">
+        <v>0.99993824873257398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.6362553992035601E-3</v>
+        <v>0.22969934039488901</v>
       </c>
       <c r="C8">
+        <v>0.74644346378952098</v>
+      </c>
+      <c r="D8">
         <v>0.99764604623136199</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2498,10 +2626,13 @@
         <v>4.12773365346864E-4</v>
       </c>
       <c r="C9">
+        <v>9.4633579212812194E-2</v>
+      </c>
+      <c r="D9">
         <v>0.50893624213700395</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2509,43 +2640,55 @@
         <v>1.0764502930408E-5</v>
       </c>
       <c r="C10">
+        <v>2.6704880945761102E-2</v>
+      </c>
+      <c r="D10">
         <v>0.20437040157161701</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>8.5614762414460595E-3</v>
+        <v>0.38521173970133299</v>
       </c>
       <c r="C11">
+        <v>0.880399896618555</v>
+      </c>
+      <c r="D11">
         <v>0.99918768535827995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>2.6619592998501002E-5</v>
+      <c r="B12">
+        <v>7.1672239588288804E-3</v>
       </c>
       <c r="C12">
-        <v>0.96182981845786097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.30102499475793498</v>
+      </c>
+      <c r="D12">
+        <v>0.80375383317327898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.89775138871156901</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2553,21 +2696,27 @@
         <v>2.6545505793821899E-5</v>
       </c>
       <c r="C14">
+        <v>1.6603448463215299E-2</v>
+      </c>
+      <c r="D14">
         <v>0.152647687165615</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>6.5808692419358603E-5</v>
+      <c r="B15">
+        <v>3.6229420638451802E-4</v>
       </c>
       <c r="C15">
-        <v>0.74385346858484103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.11329476811613</v>
+      </c>
+      <c r="D15">
+        <v>0.57074195222818702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2575,43 +2724,55 @@
         <v>8.0599727195094901E-7</v>
       </c>
       <c r="C16">
-        <v>0.14265162489577801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>4.0609826888435502E-3</v>
+      </c>
+      <c r="D16">
+        <v>6.2861479577718399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.0616579104069099E-3</v>
+        <v>0.98945748440344805</v>
       </c>
       <c r="C17">
-        <v>0.999999999994166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.99814719932675799</v>
+      </c>
+      <c r="D17">
+        <v>0.99999999212588597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>6.2319175680914804E-28</v>
-      </c>
-      <c r="C18">
-        <v>0.44044866421151402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.2043621437516301E-17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.5277298400335698E-7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.3276637237536499E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.380126237731854</v>
+        <v>0.535129453187557</v>
       </c>
       <c r="C19">
+        <v>0.87873021574794496</v>
+      </c>
+      <c r="D19">
         <v>0.99630169796579404</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2619,43 +2780,55 @@
         <v>2.32950619794953E-2</v>
       </c>
       <c r="C20">
-        <v>0.64401666814634795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.33171036245137497</v>
+      </c>
+      <c r="D20">
+        <v>0.80974478750046197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.24401538688138599</v>
+        <v>9.5187672613727903E-2</v>
       </c>
       <c r="C21">
+        <v>0.45592003636530998</v>
+      </c>
+      <c r="D21">
         <v>0.72761653762991296</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.97359518407632994</v>
+        <v>0.99998294954573197</v>
       </c>
       <c r="C22">
+        <v>0.99999646162546296</v>
+      </c>
+      <c r="D22">
         <v>0.99999999999241596</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.28713380501756097</v>
+        <v>0.73954752376833599</v>
       </c>
       <c r="C23">
+        <v>0.96734389900927997</v>
+      </c>
+      <c r="D23">
         <v>0.99996740758303104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2663,75 +2836,93 @@
         <v>0.95661159471908597</v>
       </c>
       <c r="C24">
+        <v>0.99286879109548898</v>
+      </c>
+      <c r="D24">
         <v>0.99902468199438599</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <v>2.2088963325887101E-5</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.85075861521039198</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.74851354092119E-4</v>
+        <v>1.0844419569497801E-2</v>
       </c>
       <c r="C27">
-        <v>0.96138075021588598</v>
+        <v>0.34637853653230599</v>
+      </c>
+      <c r="D27">
+        <v>0.91939710522770701</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C50E19-F1BC-4703-BE87-354E89C6C41F}">
-  <dimension ref="A1:C27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2739,10 +2930,13 @@
         <v>2.5544481687155301E-6</v>
       </c>
       <c r="C2" s="1">
-        <v>2.5544481687155301E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.1430829245938802E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.6637211666543294E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2750,10 +2944,13 @@
         <v>2.1259448952321599E-3</v>
       </c>
       <c r="C3">
+        <v>1.93995949400671E-2</v>
+      </c>
+      <c r="D3">
         <v>5.82715427480767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2761,10 +2958,13 @@
         <v>7.2686149084657703E-6</v>
       </c>
       <c r="C4">
+        <v>1.0358679858009101E-3</v>
+      </c>
+      <c r="D4">
         <v>5.4350034352094899E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2772,43 +2972,55 @@
         <v>2.7508101193367399E-2</v>
       </c>
       <c r="C5">
-        <v>0.90803573114067804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.36620075925814799</v>
+      </c>
+      <c r="D5">
+        <v>0.72761653762991296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9.5187672613727903E-2</v>
+        <v>0.24401538688138599</v>
       </c>
       <c r="C6">
+        <v>0.25715348490525203</v>
+      </c>
+      <c r="D6">
         <v>0.47609820863540803</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.55880452033535</v>
+        <v>1.2774112278627001E-2</v>
       </c>
       <c r="C7">
-        <v>0.99993824873257398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.75946334842136298</v>
+      </c>
+      <c r="D7">
+        <v>0.99998866380695794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.22969934039488901</v>
+        <v>1.6362553992035601E-3</v>
       </c>
       <c r="C8">
+        <v>0.57341597639664998</v>
+      </c>
+      <c r="D8">
         <v>0.99764604623136199</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2816,10 +3028,13 @@
         <v>4.12773365346864E-4</v>
       </c>
       <c r="C9">
+        <v>9.8272883737720598E-2</v>
+      </c>
+      <c r="D9">
         <v>0.50893624213700395</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2827,43 +3042,55 @@
         <v>1.0764502930408E-5</v>
       </c>
       <c r="C10">
+        <v>3.9292890523852299E-2</v>
+      </c>
+      <c r="D10">
         <v>0.20437040157161701</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.38521173970133299</v>
+        <v>8.5614762414460595E-3</v>
       </c>
       <c r="C11">
+        <v>0.68651206184447799</v>
+      </c>
+      <c r="D11">
         <v>0.99918768535827995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>7.1672239588288804E-3</v>
+      <c r="B12" s="1">
+        <v>2.6619592998501002E-5</v>
       </c>
       <c r="C12">
-        <v>0.80375383317327898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.33016686973423198</v>
+      </c>
+      <c r="D12">
+        <v>0.96182981845786097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.89775138871156901</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.988545476218331</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2871,21 +3098,27 @@
         <v>2.6545505793821899E-5</v>
       </c>
       <c r="C14">
+        <v>1.98104400564919E-2</v>
+      </c>
+      <c r="D14">
         <v>0.152647687165615</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>3.6229420638451802E-4</v>
+      <c r="B15" s="1">
+        <v>6.5808692419358603E-5</v>
       </c>
       <c r="C15">
-        <v>0.57074195222818702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.16058544698520699</v>
+      </c>
+      <c r="D15">
+        <v>0.74385346858484103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2893,43 +3126,55 @@
         <v>8.0599727195094901E-7</v>
       </c>
       <c r="C16">
-        <v>6.2861479577718399E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.0345019598346199E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.14265162489577801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.98945748440344805</v>
+        <v>1.0616579104069099E-3</v>
       </c>
       <c r="C17">
-        <v>0.99999999212588597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.79435564434720696</v>
+      </c>
+      <c r="D17">
+        <v>0.999999999994166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>1.2043621437516301E-17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.3276637237536499E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.2319175680914804E-28</v>
+      </c>
+      <c r="C18">
+        <v>3.122326077293E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.44044866421151402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.535129453187557</v>
+        <v>0.380126237731854</v>
       </c>
       <c r="C19">
+        <v>0.83334710644333498</v>
+      </c>
+      <c r="D19">
         <v>0.99630169796579404</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2937,43 +3182,55 @@
         <v>2.32950619794953E-2</v>
       </c>
       <c r="C20">
-        <v>0.80974478750046197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.28032095294223702</v>
+      </c>
+      <c r="D20">
+        <v>0.64401666814634795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9.5187672613727903E-2</v>
+        <v>0.24401538688138599</v>
       </c>
       <c r="C21">
+        <v>0.43078105884711898</v>
+      </c>
+      <c r="D21">
         <v>0.72761653762991296</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.99998294954573197</v>
+        <v>0.97359518407632994</v>
       </c>
       <c r="C22">
+        <v>0.99522956982266197</v>
+      </c>
+      <c r="D22">
         <v>0.99999999999241596</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.73954752376833599</v>
+        <v>0.28713380501756097</v>
       </c>
       <c r="C23">
+        <v>0.88195303961849902</v>
+      </c>
+      <c r="D23">
         <v>0.99996740758303104</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2981,361 +3238,461 @@
         <v>0.95661159471908597</v>
       </c>
       <c r="C24">
+        <v>0.98755467704515199</v>
+      </c>
+      <c r="D24">
         <v>0.99902468199438599</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" s="1">
+        <v>2.2088963325887101E-5</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.58060644194791999</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.85075861521039198</v>
       </c>
       <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>0.994776551532364</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.0844419569497801E-2</v>
+        <v>1.74851354092119E-4</v>
       </c>
       <c r="C27">
-        <v>0.91939710522770701</v>
+        <v>0.356775791091969</v>
+      </c>
+      <c r="D27">
+        <v>0.96138075021588598</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C980A70-457F-4384-B304-2AA328CD1AE9}">
-  <dimension ref="A1:C27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2.5544481687155301E-6</v>
+        <v>2.5544480000000001E-6</v>
       </c>
       <c r="C2" s="1">
-        <v>6.6637211666543294E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>1.328831E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.6637209999999993E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1.36194142612188E-2</v>
-      </c>
-      <c r="C3">
-        <v>5.82715427480767E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <v>1.361941E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.9339380000000002E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.8271539999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.03793884209485E-4</v>
-      </c>
-      <c r="C4">
-        <v>7.7668892799186595E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>1.037939E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.5634229999999997E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3669099999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0.24401538688138599</v>
-      </c>
-      <c r="C5">
-        <v>0.90803573114067804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>0.24401539999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.61785579999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.9080357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.24401538688138599</v>
-      </c>
-      <c r="C6">
-        <v>0.47609820863540703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>0.24401539999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.28007149999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.47609820000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.99980076842168697</v>
-      </c>
-      <c r="C7">
-        <v>0.99999999144204699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>0.99980080000000005</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99997449999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0.87486499369409199</v>
-      </c>
-      <c r="C8">
-        <v>0.99979774419010903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>0.95233330000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.98948650000000005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.99979770000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0.132968559934596</v>
-      </c>
-      <c r="C9">
-        <v>0.72166117890505999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>0.13296859999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.41652489999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.7216612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>5.5218959531261401E-2</v>
-      </c>
-      <c r="C10">
-        <v>0.782429754667333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>5.5218959999999997E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.42679840000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.78242979999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0.97880517973098802</v>
-      </c>
-      <c r="C11">
-        <v>0.99993834396313497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>0.93679939999999995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.9903537</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99993829999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.80121996058565104</v>
-      </c>
-      <c r="C12">
-        <v>0.99728364379907997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>0.80122000000000004</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.95719799999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.99728360000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>2.9369557447012199E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.445327224507722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>2.9369559999999999E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.20186789999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.44532719999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>0.22969934039488901</v>
-      </c>
-      <c r="C15">
-        <v>0.95233330474604105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>0.2296993</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.73961120000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.95233330000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>7.1991345215216603E-3</v>
-      </c>
-      <c r="C16">
-        <v>0.451687846032163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>7.1991349999999997E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.19205530000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.45168779999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>0.99999999212588597</v>
-      </c>
-      <c r="C17">
-        <v>0.999999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>0.99920507682161896</v>
-      </c>
-      <c r="C18">
-        <v>0.99999999573168197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>0.99920509999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.99992219999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>0.90633845255434198</v>
-      </c>
-      <c r="C19">
-        <v>0.99927641880782403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="1">
+        <v>0.90633850000000005</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.98009559999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99637609999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>0.27442625883014798</v>
-      </c>
-      <c r="C20">
-        <v>0.80974478750046197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>0.27442630000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.58851609999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.80974480000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>0.24401538688138599</v>
-      </c>
-      <c r="C21">
-        <v>0.72761653762991296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>0.24401539999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.48694720000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.7276165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>0.99999999943084905</v>
-      </c>
-      <c r="C22">
-        <v>0.99999999999998801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0.99940796465248505</v>
-      </c>
-      <c r="C23">
-        <v>0.99999917497753199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>0.99817820000000002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99977369999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>0.99061426533201902</v>
-      </c>
-      <c r="C24">
-        <v>0.99902468199438599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <v>0.99061429999999995</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99660510000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99902469999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>0.85147284094489795</v>
-      </c>
-      <c r="C27">
-        <v>0.99958470921520803</v>
+      <c r="B27" s="1">
+        <v>0.85147280000000003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.97946359999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99958469999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>